--- a/AdvancedPythonKnowledge/data.xlsx
+++ b/AdvancedPythonKnowledge/data.xlsx
@@ -557,6 +557,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -572,9 +579,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -601,9 +608,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,22 +634,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,14 +648,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -655,8 +655,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,32 +693,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,7 +715,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +781,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +835,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,61 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,79 +889,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,56 +918,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -977,17 +927,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,7 +955,63 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,148 +1020,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1556,8 +1556,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:N$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1566,13 +1566,13 @@
     <col min="2" max="2" width="25.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.5583333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="82.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="75.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.5583333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="45.1083333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:8">
+    <row r="1" ht="27" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
